--- a/PersonalComputer/ZPC-ISA.xlsx
+++ b/PersonalComputer/ZPC-ISA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="292">
   <si>
     <t xml:space="preserve">格式 </t>
   </si>
@@ -903,6 +903,22 @@
   </si>
   <si>
     <t>0x10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1936,8 +1952,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3366,7 +3382,9 @@
       <c r="N29" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="P29" s="5" t="s">
         <v>286</v>
       </c>
@@ -3705,7 +3723,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -3748,8 +3766,12 @@
       <c r="N37" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
@@ -4386,7 +4408,9 @@
       <c r="N50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="O50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="P50" s="5" t="s">
         <v>278</v>
       </c>
@@ -4526,7 +4550,9 @@
       <c r="N53" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="P53" s="5" t="s">
         <v>278</v>
       </c>
